--- a/published-data/fonds-solidarite/fds-2020-12-09/fonds-solidarite-volet-2-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-09/fonds-solidarite-volet-2-regional-naf.xlsx
@@ -673,12 +673,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>771</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1864524.90</t>
+          <t>1866524.90</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>1364</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10172512.90</t>
+          <t>10197813.05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>708944.00</t>
+          <t>714460.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -5671,12 +5671,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>337</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>1070116.00</t>
+          <t>1115116.00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5755,12 +5755,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>8764189.75</t>
+          <t>8961082.69</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5923,12 +5923,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>1361979.82</t>
+          <t>1442979.82</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6427,12 +6427,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>8227</t>
+          <t>8228</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>25798767.91</t>
+          <t>25800767.91</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6469,12 +6469,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>5004</t>
+          <t>5005</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>32759305.85</t>
+          <t>32769305.85</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6679,12 +6679,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>848</t>
+          <t>849</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>3223731.22</t>
+          <t>3233731.22</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -10585,12 +10585,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>475</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>3420751.80</t>
+          <t>3464962.16</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -11215,12 +11215,12 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>604</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>1511025.18</t>
+          <t>1513025.18</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
